--- a/assets/spec/specification-dimensions.xlsx
+++ b/assets/spec/specification-dimensions.xlsx
@@ -20,13 +20,13 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="living_status" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nationality" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_comms_language" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_number_of_dependents_uk" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_digital" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_outcome_type" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_dependents_uk" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="economic_status" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gender" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_social" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_digital" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_outcome_type" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_dependents_uk" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="economic_status" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gender" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_social" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_family_composition" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -219,7 +219,29 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="current_number_of_dependents_uk" displayName="current_number_of_dependents_uk" ref="A3:B7" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="integration_digital" displayName="integration_digital" ref="A3:B4" headerRowCount="1">
+  <autoFilter ref="A3:B4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="employment_outcome_type" displayName="employment_outcome_type" ref="A3:B14" headerRowCount="1">
+  <autoFilter ref="A3:B14"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="current_dependents_uk" displayName="current_dependents_uk" ref="A3:B7" headerRowCount="1">
   <autoFilter ref="A3:B7"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -229,19 +251,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="integration_digital" displayName="integration_digital" ref="A3:B4" headerRowCount="1">
-  <autoFilter ref="A3:B4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="employment_outcome_type" displayName="employment_outcome_type" ref="A3:B14" headerRowCount="1">
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="economic_status" displayName="economic_status" ref="A3:B14" headerRowCount="1">
   <autoFilter ref="A3:B14"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -251,20 +262,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="current_dependents_uk" displayName="current_dependents_uk" ref="A3:B5" headerRowCount="1">
-  <autoFilter ref="A3:B5"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="economic_status" displayName="economic_status" ref="A3:B14" headerRowCount="1">
-  <autoFilter ref="A3:B14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="gender" displayName="gender" ref="A3:B8" headerRowCount="1">
+  <autoFilter ref="A3:B8"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -274,8 +274,8 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="gender" displayName="gender" ref="A3:B8" headerRowCount="1">
-  <autoFilter ref="A3:B8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="integration_social" displayName="integration_social" ref="A3:B4" headerRowCount="1">
+  <autoFilter ref="A3:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -296,8 +296,8 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="integration_social" displayName="integration_social" ref="A3:B4" headerRowCount="1">
-  <autoFilter ref="A3:B4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="current_family_composition" displayName="current_family_composition" ref="A3:B7" headerRowCount="1">
+  <autoFilter ref="A3:B7"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -3934,6 +3934,235 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>integration_digital</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tbc</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>employment_outcome_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>qualifications or skills</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Successful formal recognition and/or comparison of qualifications or skills</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>training course</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Completion of relevant training course</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mentoring and/or coaching</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Completion of 10 hours+ mentoring and/or coaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>employability</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Completion of 10 hours+ employability training</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Volunteering</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Volunteering - at least 10 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>work experience</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Work experience - at least 5 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Internship</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Internship- maximum 10 days, unless paid for at the National Minimum Wage (or above) for people aged 18-22 or the National Living Wage (or above) for people aged 23+*</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sector-specific language training</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Completion of sector-specific language training which is additional to the mainstream.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>business plan for self-employment</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Developed business plan for self-employment</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Registered business for self-employment</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Registered business for self-employment</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>another specified activity</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>another specified activity directly relevant to achieving the individual’s employment goals</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3949,7 +4178,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>current_number_of_dependents_uk</t>
+          <t>current_dependents_uk</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4230,209 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>economic_status</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PT 0-15 hours per week</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PT 16-30 hours per week</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FT 31 hours +</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Self employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Government employment &amp; training programme</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Unpaid work for relatives business</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Unemployed (but looking/available for work)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Looking after family/home</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Temporarily sick/injured</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Long term sick or disabled</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Retired</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Non-binary</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4022,7 +4453,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>integration_digital</t>
+          <t>integration_social</t>
         </is>
       </c>
     </row>
@@ -4042,444 +4473,6 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>tbc</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>employment_outcome_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>qualifications or skills</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Successful formal recognition and/or comparison of qualifications or skills</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>training course</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Completion of relevant training course</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>mentoring and/or coaching</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Completion of 10 hours+ mentoring and/or coaching</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>employability</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Completion of 10 hours+ employability training</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Volunteering</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Volunteering - at least 10 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>work experience</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Work experience - at least 5 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Internship</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Internship- maximum 10 days, unless paid for at the National Minimum Wage (or above) for people aged 18-22 or the National Living Wage (or above) for people aged 23+*</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>sector-specific language training</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Completion of sector-specific language training which is additional to the mainstream.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>business plan for self-employment</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Developed business plan for self-employment</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Registered business for self-employment</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Registered business for self-employment</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>another specified activity</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>another specified activity directly relevant to achieving the individual’s employment goals</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>current_dependents_uk</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>economic_status</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PT 0-15 hours per week</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PT 16-30 hours per week</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>FT 31 hours +</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Self employed</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Government employment &amp; training programme</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Unpaid work for relatives business</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Unemployed (but looking/available for work)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Looking after family/home</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Temporarily sick/injured</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Long term sick or disabled</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Retired</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Woman</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Non-binary</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Prefer not to say</t>
         </is>
       </c>
     </row>
@@ -4549,7 +4542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4564,7 +4557,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>integration_social</t>
+          <t>current_family_composition</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4576,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tbc</t>
+          <t>No care responsibilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Only care responsibilities outside UK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Any care responsibilities within UK and in same HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Only care responsibilities within UK and outside HH</t>
         </is>
       </c>
     </row>

--- a/assets/spec/specification-dimensions.xlsx
+++ b/assets/spec/specification-dimensions.xlsx
@@ -20,13 +20,13 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="living_status" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nationality" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_comms_language" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_digital" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_outcome_type" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_dependents_uk" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="economic_status" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gender" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_social" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_family_composition" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_number_of_dependents_uk" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_digital" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_outcome_type" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_dependents_uk" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="economic_status" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gender" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_social" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -219,7 +219,18 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="integration_digital" displayName="integration_digital" ref="A3:B4" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="current_number_of_dependents_uk" displayName="current_number_of_dependents_uk" ref="A3:B7" headerRowCount="1">
+  <autoFilter ref="A3:B7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="integration_digital" displayName="integration_digital" ref="A3:B4" headerRowCount="1">
   <autoFilter ref="A3:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -229,8 +240,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="employment_outcome_type" displayName="employment_outcome_type" ref="A3:B14" headerRowCount="1">
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="employment_outcome_type" displayName="employment_outcome_type" ref="A3:B14" headerRowCount="1">
   <autoFilter ref="A3:B14"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -240,9 +251,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="current_dependents_uk" displayName="current_dependents_uk" ref="A3:B7" headerRowCount="1">
-  <autoFilter ref="A3:B7"/>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="current_dependents_uk" displayName="current_dependents_uk" ref="A3:B5" headerRowCount="1">
+  <autoFilter ref="A3:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -251,8 +262,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="economic_status" displayName="economic_status" ref="A3:B14" headerRowCount="1">
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="economic_status" displayName="economic_status" ref="A3:B14" headerRowCount="1">
   <autoFilter ref="A3:B14"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -262,20 +273,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="gender" displayName="gender" ref="A3:B8" headerRowCount="1">
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="gender" displayName="gender" ref="A3:B8" headerRowCount="1">
   <autoFilter ref="A3:B8"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="integration_social" displayName="integration_social" ref="A3:B4" headerRowCount="1">
-  <autoFilter ref="A3:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -296,8 +296,8 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="current_family_composition" displayName="current_family_composition" ref="A3:B7" headerRowCount="1">
-  <autoFilter ref="A3:B7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="integration_social" displayName="integration_social" ref="A3:B4" headerRowCount="1">
+  <autoFilter ref="A3:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -3934,6 +3934,79 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>current_number_of_dependents_uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>11-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Caring responsibilities for an adult</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3980,7 +4053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4157,13 +4230,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4197,28 +4270,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>11-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Caring responsibilities for an adult</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -4230,7 +4289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4352,7 +4411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4421,58 +4480,6 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Prefer not to say</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>integration_social</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>tbc</t>
         </is>
       </c>
     </row>
@@ -4542,7 +4549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4557,7 +4564,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>current_family_composition</t>
+          <t>integration_social</t>
         </is>
       </c>
     </row>
@@ -4576,28 +4583,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>No care responsibilities</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Only care responsibilities outside UK</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Any care responsibilities within UK and in same HH</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Only care responsibilities within UK and outside HH</t>
+          <t>tbc</t>
         </is>
       </c>
     </row>

--- a/assets/spec/specification-dimensions.xlsx
+++ b/assets/spec/specification-dimensions.xlsx
@@ -11,22 +11,24 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_baseline_accommodation" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="referral_source" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_entry_accomodation" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transgender" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_entry_details" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_outcome_type" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="highest_qualification_achieved" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="language_level_on_entry" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_entry_outcome_type" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="living_status" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nationality" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_comms_language" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_number_of_dependents_uk" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_digital" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_outcome_type" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_dependents_uk" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="economic_status" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gender" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_social" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="intermediate_employment_outcome_type" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transgender" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_entry_details" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_outcome_type" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="highest_qualification_achieved" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="language_level_on_entry" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_entry_outcome_type" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="living_status" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nationality" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_comms_language" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_number_of_dependents_uk" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_digital" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_outcome_type" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_dependents_uk" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="economic_status" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gender" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_social" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_family_composition" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -175,8 +177,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="employment_entry_outcome_type" displayName="employment_entry_outcome_type" ref="A3:B5" headerRowCount="1">
-  <autoFilter ref="A3:B5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="language_level_on_entry" displayName="language_level_on_entry" ref="A3:B11" headerRowCount="1">
+  <autoFilter ref="A3:B11"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -186,7 +188,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="living_status" displayName="living_status" ref="A3:B5" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="employment_entry_outcome_type" displayName="employment_entry_outcome_type" ref="A3:B5" headerRowCount="1">
   <autoFilter ref="A3:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -197,7 +199,18 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="nationality" displayName="nationality" ref="A3:B252" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="living_status" displayName="living_status" ref="A3:B5" headerRowCount="1">
+  <autoFilter ref="A3:B5"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="nationality" displayName="nationality" ref="A3:B252" headerRowCount="1">
   <autoFilter ref="A3:B252"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -207,8 +220,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="integration_comms_language" displayName="integration_comms_language" ref="A3:B4" headerRowCount="1">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="integration_comms_language" displayName="integration_comms_language" ref="A3:B4" headerRowCount="1">
   <autoFilter ref="A3:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -218,8 +231,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="current_number_of_dependents_uk" displayName="current_number_of_dependents_uk" ref="A3:B7" headerRowCount="1">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="current_number_of_dependents_uk" displayName="current_number_of_dependents_uk" ref="A3:B7" headerRowCount="1">
   <autoFilter ref="A3:B7"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -229,8 +242,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="integration_digital" displayName="integration_digital" ref="A3:B4" headerRowCount="1">
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="integration_digital" displayName="integration_digital" ref="A3:B4" headerRowCount="1">
   <autoFilter ref="A3:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -240,8 +253,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="employment_outcome_type" displayName="employment_outcome_type" ref="A3:B14" headerRowCount="1">
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="employment_outcome_type" displayName="employment_outcome_type" ref="A3:B14" headerRowCount="1">
   <autoFilter ref="A3:B14"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -251,8 +264,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="current_dependents_uk" displayName="current_dependents_uk" ref="A3:B5" headerRowCount="1">
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="current_dependents_uk" displayName="current_dependents_uk" ref="A3:B5" headerRowCount="1">
   <autoFilter ref="A3:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -262,20 +275,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="economic_status" displayName="economic_status" ref="A3:B14" headerRowCount="1">
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="economic_status" displayName="economic_status" ref="A3:B14" headerRowCount="1">
   <autoFilter ref="A3:B14"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="gender" displayName="gender" ref="A3:B8" headerRowCount="1">
-  <autoFilter ref="A3:B8"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -296,8 +298,30 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="integration_social" displayName="integration_social" ref="A3:B4" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="gender" displayName="gender" ref="A3:B8" headerRowCount="1">
+  <autoFilter ref="A3:B8"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="integration_social" displayName="integration_social" ref="A3:B4" headerRowCount="1">
   <autoFilter ref="A3:B4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="current_family_composition" displayName="current_family_composition" ref="A3:B7" headerRowCount="1">
+  <autoFilter ref="A3:B7"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -329,7 +353,18 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="transgender" displayName="transgender" ref="A3:B6" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="intermediate_employment_outcome_type" displayName="intermediate_employment_outcome_type" ref="A3:B14" headerRowCount="1">
+  <autoFilter ref="A3:B14"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="transgender" displayName="transgender" ref="A3:B6" headerRowCount="1">
   <autoFilter ref="A3:B6"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -339,8 +374,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="employment_entry_details" displayName="employment_entry_details" ref="A3:B7" headerRowCount="1">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="employment_entry_details" displayName="employment_entry_details" ref="A3:B7" headerRowCount="1">
   <autoFilter ref="A3:B7"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -350,8 +385,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="integration_outcome_type" displayName="integration_outcome_type" ref="A3:B6" headerRowCount="1">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="integration_outcome_type" displayName="integration_outcome_type" ref="A3:B6" headerRowCount="1">
   <autoFilter ref="A3:B6"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -361,20 +396,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="highest_qualification_achieved" displayName="highest_qualification_achieved" ref="A3:B9" headerRowCount="1">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="highest_qualification_achieved" displayName="highest_qualification_achieved" ref="A3:B9" headerRowCount="1">
   <autoFilter ref="A3:B9"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="language_level_on_entry" displayName="language_level_on_entry" ref="A3:B11" headerRowCount="1">
-  <autoFilter ref="A3:B11"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -731,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,7 +770,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>employment_entry_outcome_type</t>
+          <t>language_level_on_entry</t>
         </is>
       </c>
     </row>
@@ -765,14 +789,56 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Below formal levels</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Self-employment</t>
+          <t>Pre-entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Entry level 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Entry level 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Entry level 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Level 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Level 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Beyond Level 2</t>
         </is>
       </c>
     </row>
@@ -805,7 +871,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>living_status</t>
+          <t>employment_entry_outcome_type</t>
         </is>
       </c>
     </row>
@@ -824,14 +890,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Single</t>
+          <t>Employment</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Couple</t>
+          <t>Self-employment</t>
         </is>
       </c>
     </row>
@@ -844,6 +910,65 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>living_status</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Couple</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3876,7 +4001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3928,7 +4053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4001,7 +4126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4053,7 +4178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4230,7 +4355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4289,7 +4414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4400,86 +4525,6 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Retired</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Woman</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Non-binary</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Prefer not to say</t>
         </is>
       </c>
     </row>
@@ -4549,6 +4594,86 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Non-binary</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4584,6 +4709,79 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>tbc</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>current_family_composition</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>No care responsibilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Only care responsibilities outside UK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Any care responsibilities within UK and in same HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Only care responsibilities within UK and outside HH</t>
         </is>
       </c>
     </row>
@@ -4706,6 +4904,183 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>intermediate_employment_outcome_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>qualifications or skills</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Successful formal recognition and/or comparison of qualifications or skills</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>training course</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Completion of relevant training course</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mentoring and/or coaching</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Completion of 10 hours+ mentoring and/or coaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>employability</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Completion of 10 hours+ employability training</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Volunteering</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Volunteering - at least 10 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>work experience</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Work experience - at least 5 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Internship</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Internship- maximum 10 days, unless paid for at the National Minimum Wage (or above) for people aged 18-22 or the National Living Wage (or above) for people aged 23+*</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sector-specific language training</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Completion of sector-specific language training which is additional to the mainstream.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>business plan for self-employment</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Developed business plan for self-employment</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Registered business for self-employment</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Registered business for self-employment</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>another specified activity</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>another specified activity directly relevant to achieving the individual’s employment goals</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4766,7 +5141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4839,7 +5214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4905,7 +5280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4990,105 +5365,4 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>language_level_on_entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Below formal levels</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pre-entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Entry level 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Entry level 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Entry level 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Level 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Level 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Beyond Level 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/assets/spec/specification-dimensions.xlsx
+++ b/assets/spec/specification-dimensions.xlsx
@@ -18,17 +18,16 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="highest_qualification_achieved" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="language_level_on_entry" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_entry_outcome_type" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="living_status" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nationality" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_comms_language" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_number_of_dependents_uk" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_digital" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_outcome_type" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_dependents_uk" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="economic_status" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gender" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_social" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_family_composition" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nationality" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_comms_language" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_number_of_dependents_uk" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_digital" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_outcome_type" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_dependents_uk" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="economic_status" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gender" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_social" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_family_composition" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -199,7 +198,62 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="living_status" displayName="living_status" ref="A3:B5" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="nationality" displayName="nationality" ref="A3:B252" headerRowCount="1">
+  <autoFilter ref="A3:B252"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="integration_comms_language" displayName="integration_comms_language" ref="A3:B4" headerRowCount="1">
+  <autoFilter ref="A3:B4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="current_number_of_dependents_uk" displayName="current_number_of_dependents_uk" ref="A3:B7" headerRowCount="1">
+  <autoFilter ref="A3:B7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="integration_digital" displayName="integration_digital" ref="A3:B4" headerRowCount="1">
+  <autoFilter ref="A3:B4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="employment_outcome_type" displayName="employment_outcome_type" ref="A3:B14" headerRowCount="1">
+  <autoFilter ref="A3:B14"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="current_dependents_uk" displayName="current_dependents_uk" ref="A3:B5" headerRowCount="1">
   <autoFilter ref="A3:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -209,52 +263,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="nationality" displayName="nationality" ref="A3:B252" headerRowCount="1">
-  <autoFilter ref="A3:B252"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="integration_comms_language" displayName="integration_comms_language" ref="A3:B4" headerRowCount="1">
-  <autoFilter ref="A3:B4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="current_number_of_dependents_uk" displayName="current_number_of_dependents_uk" ref="A3:B7" headerRowCount="1">
-  <autoFilter ref="A3:B7"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="integration_digital" displayName="integration_digital" ref="A3:B4" headerRowCount="1">
-  <autoFilter ref="A3:B4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="employment_outcome_type" displayName="employment_outcome_type" ref="A3:B14" headerRowCount="1">
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="economic_status" displayName="economic_status" ref="A3:B14" headerRowCount="1">
   <autoFilter ref="A3:B14"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -264,20 +274,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="current_dependents_uk" displayName="current_dependents_uk" ref="A3:B5" headerRowCount="1">
-  <autoFilter ref="A3:B5"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="economic_status" displayName="economic_status" ref="A3:B14" headerRowCount="1">
-  <autoFilter ref="A3:B14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="gender" displayName="gender" ref="A3:B8" headerRowCount="1">
+  <autoFilter ref="A3:B8"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -298,8 +297,8 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="gender" displayName="gender" ref="A3:B8" headerRowCount="1">
-  <autoFilter ref="A3:B8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="integration_social" displayName="integration_social" ref="A3:B4" headerRowCount="1">
+  <autoFilter ref="A3:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -309,18 +308,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="integration_social" displayName="integration_social" ref="A3:B4" headerRowCount="1">
-  <autoFilter ref="A3:B4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="current_family_composition" displayName="current_family_composition" ref="A3:B7" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="current_family_composition" displayName="current_family_composition" ref="A3:B7" headerRowCount="1">
   <autoFilter ref="A3:B7"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -915,65 +903,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>living_status</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Single</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Couple</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:B252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4001,7 +3930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4053,7 +3982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4126,7 +4055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4178,7 +4107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4355,7 +4284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4414,7 +4343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4525,6 +4454,86 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Retired</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Non-binary</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Prefer not to say</t>
         </is>
       </c>
     </row>
@@ -4594,86 +4603,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Woman</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Non-binary</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Prefer not to say</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4720,7 +4649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/assets/spec/specification-dimensions.xlsx
+++ b/assets/spec/specification-dimensions.xlsx
@@ -4762,10 +4762,9 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>No Data Available</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>tbc</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/spec/specification-dimensions.xlsx
+++ b/assets/spec/specification-dimensions.xlsx
@@ -7,27 +7,27 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employed_in_home_country" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_baseline_accommodation" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="referral_source" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_entry_accomodation" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="intermediate_employment_outcome_type" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transgender" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_entry_details" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_outcome_type" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="highest_qualification_achieved" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="language_level_on_entry" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_entry_outcome_type" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nationality" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_comms_language" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_number_of_dependents_uk" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_digital" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_outcome_type" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_dependents_uk" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="economic_status" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gender" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_social" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_family_composition" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_family_composition" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="language_level_on_entry" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_dependents_uk" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gender" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_number_of_dependents_uk" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nationality" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_comms_language" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_entry_outcome_type" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_outcome_type" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="referral_source" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_outcome_type" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_entry_accomodation" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="intermediate_employment_outcome_type" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transgender" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="highest_qualification_achieved" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_social" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_entry_details" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_baseline_accommodation" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employed_in_home_country" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="economic_status" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_digital" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -165,7 +165,117 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="employed_in_home_country" displayName="employed_in_home_country" ref="A3:B5" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="current_family_composition" displayName="current_family_composition" ref="A3:B7" headerRowCount="1">
+  <autoFilter ref="A3:B7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="referral_source" displayName="referral_source" ref="A3:B4" headerRowCount="1">
+  <autoFilter ref="A3:B4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="employment_outcome_type" displayName="employment_outcome_type" ref="A3:B14" headerRowCount="1">
+  <autoFilter ref="A3:B14"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="housing_entry_accomodation" displayName="housing_entry_accomodation" ref="A3:B4" headerRowCount="1">
+  <autoFilter ref="A3:B4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="intermediate_employment_outcome_type" displayName="intermediate_employment_outcome_type" ref="A3:B14" headerRowCount="1">
+  <autoFilter ref="A3:B14"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="transgender" displayName="transgender" ref="A3:B6" headerRowCount="1">
+  <autoFilter ref="A3:B6"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="highest_qualification_achieved" displayName="highest_qualification_achieved" ref="A3:B9" headerRowCount="1">
+  <autoFilter ref="A3:B9"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="integration_social" displayName="integration_social" ref="A3:B4" headerRowCount="1">
+  <autoFilter ref="A3:B4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="employment_entry_details" displayName="employment_entry_details" ref="A3:B7" headerRowCount="1">
+  <autoFilter ref="A3:B7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="housing_baseline_accommodation" displayName="housing_baseline_accommodation" ref="A3:B4" headerRowCount="1">
+  <autoFilter ref="A3:B4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="employed_in_home_country" displayName="employed_in_home_country" ref="A3:B5" headerRowCount="1">
   <autoFilter ref="A3:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -175,8 +285,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="language_level_on_entry" displayName="language_level_on_entry" ref="A3:B11" headerRowCount="1">
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="language_level_on_entry" displayName="language_level_on_entry" ref="A3:B11" headerRowCount="1">
   <autoFilter ref="A3:B11"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -186,8 +296,30 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="employment_entry_outcome_type" displayName="employment_entry_outcome_type" ref="A3:B5" headerRowCount="1">
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="economic_status" displayName="economic_status" ref="A3:B14" headerRowCount="1">
+  <autoFilter ref="A3:B14"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="integration_digital" displayName="integration_digital" ref="A3:B4" headerRowCount="1">
+  <autoFilter ref="A3:B4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="current_dependents_uk" displayName="current_dependents_uk" ref="A3:B5" headerRowCount="1">
   <autoFilter ref="A3:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -197,8 +329,30 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="nationality" displayName="nationality" ref="A3:B252" headerRowCount="1">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="gender" displayName="gender" ref="A3:B8" headerRowCount="1">
+  <autoFilter ref="A3:B8"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="current_number_of_dependents_uk" displayName="current_number_of_dependents_uk" ref="A3:B7" headerRowCount="1">
+  <autoFilter ref="A3:B7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="nationality" displayName="nationality" ref="A3:B252" headerRowCount="1">
   <autoFilter ref="A3:B252"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -208,8 +362,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="integration_comms_language" displayName="integration_comms_language" ref="A3:B4" headerRowCount="1">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="integration_comms_language" displayName="integration_comms_language" ref="A3:B4" headerRowCount="1">
   <autoFilter ref="A3:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -219,41 +373,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="current_number_of_dependents_uk" displayName="current_number_of_dependents_uk" ref="A3:B7" headerRowCount="1">
-  <autoFilter ref="A3:B7"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="integration_digital" displayName="integration_digital" ref="A3:B4" headerRowCount="1">
-  <autoFilter ref="A3:B4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="employment_outcome_type" displayName="employment_outcome_type" ref="A3:B14" headerRowCount="1">
-  <autoFilter ref="A3:B14"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="current_dependents_uk" displayName="current_dependents_uk" ref="A3:B5" headerRowCount="1">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="employment_entry_outcome_type" displayName="employment_entry_outcome_type" ref="A3:B5" headerRowCount="1">
   <autoFilter ref="A3:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -263,130 +384,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="economic_status" displayName="economic_status" ref="A3:B14" headerRowCount="1">
-  <autoFilter ref="A3:B14"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="gender" displayName="gender" ref="A3:B8" headerRowCount="1">
-  <autoFilter ref="A3:B8"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="housing_baseline_accommodation" displayName="housing_baseline_accommodation" ref="A3:B4" headerRowCount="1">
-  <autoFilter ref="A3:B4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="integration_social" displayName="integration_social" ref="A3:B4" headerRowCount="1">
-  <autoFilter ref="A3:B4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="current_family_composition" displayName="current_family_composition" ref="A3:B7" headerRowCount="1">
-  <autoFilter ref="A3:B7"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="referral_source" displayName="referral_source" ref="A3:B4" headerRowCount="1">
-  <autoFilter ref="A3:B4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="housing_entry_accomodation" displayName="housing_entry_accomodation" ref="A3:B4" headerRowCount="1">
-  <autoFilter ref="A3:B4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="intermediate_employment_outcome_type" displayName="intermediate_employment_outcome_type" ref="A3:B14" headerRowCount="1">
-  <autoFilter ref="A3:B14"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="transgender" displayName="transgender" ref="A3:B6" headerRowCount="1">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="integration_outcome_type" displayName="integration_outcome_type" ref="A3:B6" headerRowCount="1">
   <autoFilter ref="A3:B6"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="employment_entry_details" displayName="employment_entry_details" ref="A3:B7" headerRowCount="1">
-  <autoFilter ref="A3:B7"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="integration_outcome_type" displayName="integration_outcome_type" ref="A3:B6" headerRowCount="1">
-  <autoFilter ref="A3:B6"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="highest_qualification_achieved" displayName="highest_qualification_achieved" ref="A3:B9" headerRowCount="1">
-  <autoFilter ref="A3:B9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -684,6 +684,867 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>current_family_composition</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>No care responsibilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Only care responsibilities outside UK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Any care responsibilities within UK and in same HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Only care responsibilities within UK and outside HH</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>referral_source</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tbc</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>employment_outcome_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>qualifications or skills</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Successful formal recognition and/or comparison of qualifications or skills</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>training course</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Completion of relevant training course</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mentoring and/or coaching</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Completion of 10 hours+ mentoring and/or coaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>employability</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Completion of 10 hours+ employability training</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Volunteering</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Volunteering - at least 10 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>work experience</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Work experience - at least 5 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Internship</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Internship- maximum 10 days, unless paid for at the National Minimum Wage (or above) for people aged 18-22 or the National Living Wage (or above) for people aged 23+*</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sector-specific language training</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Completion of sector-specific language training which is additional to the mainstream.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>business plan for self-employment</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Developed business plan for self-employment</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Registered business for self-employment</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Registered business for self-employment</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>another specified activity</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>another specified activity directly relevant to achieving the individual’s employment goals</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>housing_entry_accomodation</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tbc</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>intermediate_employment_outcome_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>qualifications or skills</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Successful formal recognition and/or comparison of qualifications or skills</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>training course</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Completion of relevant training course</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mentoring and/or coaching</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Completion of 10 hours+ mentoring and/or coaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>employability</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Completion of 10 hours+ employability training</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Volunteering</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Volunteering - at least 10 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>work experience</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Work experience - at least 5 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Internship</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Internship- maximum 10 days, unless paid for at the National Minimum Wage (or above) for people aged 18-22 or the National Living Wage (or above) for people aged 23+*</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sector-specific language training</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Completion of sector-specific language training which is additional to the mainstream.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>business plan for self-employment</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Developed business plan for self-employment</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Registered business for self-employment</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Registered business for self-employment</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>another specified activity</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>another specified activity directly relevant to achieving the individual’s employment goals</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>transgender</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Identify as transgender</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Do not identify as Transgender</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>highest_qualification_achieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Below formal levels</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Level 1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Level 3-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Level 5+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>integration_social</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tbc</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>employment_entry_details</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PT 0-15 hours per week</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PT 16-30 hours per week</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FT 31 hours +</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Government employment &amp; training programme</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>housing_baseline_accommodation</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tbc</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -737,7 +1598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -838,7 +1699,181 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>economic_status</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PT 0-15 hours per week</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PT 16-30 hours per week</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FT 31 hours +</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Self employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Government employment &amp; training programme</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Unpaid work for relatives business</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Unemployed (but looking/available for work)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Looking after family/home</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Temporarily sick/injured</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Long term sick or disabled</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Retired</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>integration_digital</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tbc</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -859,7 +1894,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>employment_entry_outcome_type</t>
+          <t>current_dependents_uk</t>
         </is>
       </c>
     </row>
@@ -878,14 +1913,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Employment</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Self-employment</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -897,7 +1932,160 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Non-binary</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>current_number_of_dependents_uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>11-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Caring responsibilities for an adult</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3930,7 +5118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3982,309 +5170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>current_number_of_dependents_uk</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>0-4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>5-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>11-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Caring responsibilities for an adult</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>integration_digital</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>tbc</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>employment_outcome_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>qualifications or skills</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Successful formal recognition and/or comparison of qualifications or skills</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>training course</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Completion of relevant training course</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>mentoring and/or coaching</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Completion of 10 hours+ mentoring and/or coaching</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>employability</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Completion of 10 hours+ employability training</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Volunteering</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Volunteering - at least 10 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>work experience</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Work experience - at least 5 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Internship</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Internship- maximum 10 days, unless paid for at the National Minimum Wage (or above) for people aged 18-22 or the National Living Wage (or above) for people aged 23+*</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>sector-specific language training</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Completion of sector-specific language training which is additional to the mainstream.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>business plan for self-employment</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Developed business plan for self-employment</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Registered business for self-employment</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Registered business for self-employment</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>another specified activity</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>another specified activity directly relevant to achieving the individual’s employment goals</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4305,7 +5191,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>current_dependents_uk</t>
+          <t>employment_entry_outcome_type</t>
         </is>
       </c>
     </row>
@@ -4324,14 +5210,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Employment</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Self-employment</t>
         </is>
       </c>
     </row>
@@ -4343,667 +5229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>economic_status</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PT 0-15 hours per week</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PT 16-30 hours per week</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>FT 31 hours +</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Self employed</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Government employment &amp; training programme</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Unpaid work for relatives business</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Unemployed (but looking/available for work)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Looking after family/home</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Temporarily sick/injured</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Long term sick or disabled</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Retired</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Woman</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Non-binary</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Prefer not to say</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>housing_baseline_accommodation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>tbc</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>integration_social</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>tbc</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>current_family_composition</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>No care responsibilities</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Only care responsibilities outside UK</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Any care responsibilities within UK and in same HH</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Only care responsibilities within UK and outside HH</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>referral_source</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>tbc</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>housing_entry_accomodation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>tbc</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>intermediate_employment_outcome_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>qualifications or skills</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Successful formal recognition and/or comparison of qualifications or skills</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>training course</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Completion of relevant training course</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>mentoring and/or coaching</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Completion of 10 hours+ mentoring and/or coaching</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>employability</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Completion of 10 hours+ employability training</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Volunteering</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Volunteering - at least 10 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>work experience</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Work experience - at least 5 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Internship</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Internship- maximum 10 days, unless paid for at the National Minimum Wage (or above) for people aged 18-22 or the National Living Wage (or above) for people aged 23+*</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>sector-specific language training</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Completion of sector-specific language training which is additional to the mainstream.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>business plan for self-employment</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Developed business plan for self-employment</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Registered business for self-employment</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Registered business for self-employment</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>another specified activity</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>another specified activity directly relevant to achieving the individual’s employment goals</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5024,7 +5250,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>transgender</t>
+          <t>integration_outcome_type</t>
         </is>
       </c>
     </row>
@@ -5043,247 +5269,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Identify as transgender</t>
+          <t>Creation</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Do not identify as Transgender</t>
+          <t>6 month</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Prefer not to say</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>employment_entry_details</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PT 0-15 hours per week</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PT 16-30 hours per week</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>FT 31 hours +</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Government employment &amp; training programme</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>integration_outcome_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Creation</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>6 month</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
           <t>12 month</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>highest_qualification_achieved</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Below formal levels</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Entry level</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Level 1-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Level 3-4</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Level 5+</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Unknown</t>
         </is>
       </c>
     </row>

--- a/assets/spec/specification-dimensions.xlsx
+++ b/assets/spec/specification-dimensions.xlsx
@@ -791,9 +791,10 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tbc</t>
-        </is>
-      </c>
+          <t>No Data Available</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/spec/specification-dimensions.xlsx
+++ b/assets/spec/specification-dimensions.xlsx
@@ -791,10 +791,9 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>No Data Available</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>tbc</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/spec/specification-dimensions.xlsx
+++ b/assets/spec/specification-dimensions.xlsx
@@ -23,23 +23,24 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_outcome_type" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="referral_source" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_status" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_outcome_type" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wage_baseline" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_entry_accomodation" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_entry_status" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="intermediate_employment_outcome_type" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transgender" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="highest_qualification_achieved" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_social" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="education_training_status_sustain" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="prior_employment" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_baseline_accommodation" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="education_training_status_entry" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employed_in_home_country" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wage_employment_sustain" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_digital" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_sustain_status" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hours_of_employment_entry" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_sustain_accomodation" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_outcome_type" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wage_baseline" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_entry_accomodation" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_entry_status" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="intermediate_employment_outcome_type" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transgender" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="highest_qualification_achieved" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_social" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="education_training_status_sustain" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="prior_employment" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_baseline_accommodation" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="education_training_status_entry" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employed_in_home_country" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wage_employment_sustain" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_digital" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_sustain_status" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hours_of_employment_entry" sheetId="34" state="visible" r:id="rId34"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -265,7 +266,18 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="employment_outcome_type" displayName="employment_outcome_type" ref="A3:B14" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="housing_sustain_accomodation" displayName="housing_sustain_accomodation" ref="A3:B6" headerRowCount="1">
+  <autoFilter ref="A3:B6"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="employment_outcome_type" displayName="employment_outcome_type" ref="A3:B14" headerRowCount="1">
   <autoFilter ref="A3:B14"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -275,20 +287,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="wage_baseline" displayName="wage_baseline" ref="A3:B4" headerRowCount="1">
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="wage_baseline" displayName="wage_baseline" ref="A3:B4" headerRowCount="1">
   <autoFilter ref="A3:B4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="housing_entry_accomodation" displayName="housing_entry_accomodation" ref="A3:B6" headerRowCount="1">
-  <autoFilter ref="A3:B6"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -309,7 +310,18 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="employment_entry_status" displayName="employment_entry_status" ref="A3:B9" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="housing_entry_accomodation" displayName="housing_entry_accomodation" ref="A3:B6" headerRowCount="1">
+  <autoFilter ref="A3:B6"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="employment_entry_status" displayName="employment_entry_status" ref="A3:B9" headerRowCount="1">
   <autoFilter ref="A3:B9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -319,8 +331,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="intermediate_employment_outcome_type" displayName="intermediate_employment_outcome_type" ref="A3:B14" headerRowCount="1">
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="intermediate_employment_outcome_type" displayName="intermediate_employment_outcome_type" ref="A3:B14" headerRowCount="1">
   <autoFilter ref="A3:B14"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -330,8 +342,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="transgender" displayName="transgender" ref="A3:B6" headerRowCount="1">
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="transgender" displayName="transgender" ref="A3:B6" headerRowCount="1">
   <autoFilter ref="A3:B6"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -341,8 +353,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="highest_qualification_achieved" displayName="highest_qualification_achieved" ref="A3:B9" headerRowCount="1">
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="highest_qualification_achieved" displayName="highest_qualification_achieved" ref="A3:B9" headerRowCount="1">
   <autoFilter ref="A3:B9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -352,8 +364,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="integration_social" displayName="integration_social" ref="A3:B4" headerRowCount="1">
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="integration_social" displayName="integration_social" ref="A3:B4" headerRowCount="1">
   <autoFilter ref="A3:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -363,8 +375,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="education_training_status_sustain" displayName="education_training_status_sustain" ref="A3:B5" headerRowCount="1">
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="education_training_status_sustain" displayName="education_training_status_sustain" ref="A3:B5" headerRowCount="1">
   <autoFilter ref="A3:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -374,8 +386,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="prior_employment" displayName="prior_employment" ref="A3:B6" headerRowCount="1">
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="prior_employment" displayName="prior_employment" ref="A3:B6" headerRowCount="1">
   <autoFilter ref="A3:B6"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -385,8 +397,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="housing_baseline_accommodation" displayName="housing_baseline_accommodation" ref="A3:B4" headerRowCount="1">
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="housing_baseline_accommodation" displayName="housing_baseline_accommodation" ref="A3:B4" headerRowCount="1">
   <autoFilter ref="A3:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -396,19 +408,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="education_training_status_entry" displayName="education_training_status_entry" ref="A3:B5" headerRowCount="1">
-  <autoFilter ref="A3:B5"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="employed_in_home_country" displayName="employed_in_home_country" ref="A3:B5" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="education_training_status_entry" displayName="education_training_status_entry" ref="A3:B5" headerRowCount="1">
   <autoFilter ref="A3:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -430,7 +431,18 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="wage_employment_sustain" displayName="wage_employment_sustain" ref="A3:B4" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="employed_in_home_country" displayName="employed_in_home_country" ref="A3:B5" headerRowCount="1">
+  <autoFilter ref="A3:B5"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="wage_employment_sustain" displayName="wage_employment_sustain" ref="A3:B4" headerRowCount="1">
   <autoFilter ref="A3:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -440,8 +452,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="integration_digital" displayName="integration_digital" ref="A3:B4" headerRowCount="1">
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="integration_digital" displayName="integration_digital" ref="A3:B4" headerRowCount="1">
   <autoFilter ref="A3:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -451,8 +463,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="employment_sustain_status" displayName="employment_sustain_status" ref="A3:B9" headerRowCount="1">
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="employment_sustain_status" displayName="employment_sustain_status" ref="A3:B9" headerRowCount="1">
   <autoFilter ref="A3:B9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -462,8 +474,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="hours_of_employment_entry" displayName="hours_of_employment_entry" ref="A3:B9" headerRowCount="1">
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="hours_of_employment_entry" displayName="hours_of_employment_entry" ref="A3:B9" headerRowCount="1">
   <autoFilter ref="A3:B9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -4365,6 +4377,72 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>housing_sustain_accomodation</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Renting - private sector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Renting - Local authority or housing association</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Other safe and secure accommodation</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4536,7 +4614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4577,72 +4655,6 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>tbc</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>housing_entry_accomodation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Renting - private sector</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Renting - Local authority or housing association</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Other safe and secure accommodation</t>
         </is>
       </c>
     </row>
@@ -4719,6 +4731,72 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>housing_entry_accomodation</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Renting - private sector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Renting - Local authority or housing association</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Other safe and secure accommodation</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4800,7 +4878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4977,7 +5055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5043,7 +5121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5130,7 +5208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5182,7 +5260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5241,7 +5319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5307,7 +5385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5348,65 +5426,6 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>tbc</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>education_training_status_entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>In formal education or training (for example, registered in college or university, an apprenticeship, or a government employment and training programme. This may be combined with paid employment)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Not in formal education or training (i.e. not formally registered)</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5458,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>employed_in_home_country</t>
+          <t>education_training_status_entry</t>
         </is>
       </c>
     </row>
@@ -5458,14 +5477,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>In formal education or training (for example, registered in college or university, an apprenticeship, or a government employment and training programme. This may be combined with paid employment)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not in formal education or training (i.e. not formally registered)</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5571,7 +5590,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>wage_employment_sustain</t>
+          <t>employed_in_home_country</t>
         </is>
       </c>
     </row>
@@ -5590,7 +5609,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tbc</t>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -5623,7 +5649,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>integration_digital</t>
+          <t>wage_employment_sustain</t>
         </is>
       </c>
     </row>
@@ -5660,7 +5686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5675,7 +5701,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>employment_sustain_status</t>
+          <t>integration_digital</t>
         </is>
       </c>
     </row>
@@ -5694,42 +5720,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Working as an employee on a permanent contract (or on leave from employment, for example maternity or paternity leave)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Working as an employee on a temporary contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Working as an employee on a zero hours contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Working as an employee cash in hand</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Self employed or freelance (Freelance means that you are self-employed and work for different companies or people on particular pieces of work)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Other</t>
+          <t>tbc</t>
         </is>
       </c>
     </row>
@@ -5762,6 +5753,93 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>employment_sustain_status</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Working as an employee on a permanent contract (or on leave from employment, for example maternity or paternity leave)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Working as an employee on a temporary contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Working as an employee on a zero hours contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Working as an employee cash in hand</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Self employed or freelance (Freelance means that you are self-employed and work for different companies or people on particular pieces of work)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>hours_of_employment_entry</t>
         </is>
       </c>

--- a/assets/spec/specification-dimensions.xlsx
+++ b/assets/spec/specification-dimensions.xlsx
@@ -244,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="referral_source" displayName="referral_source" ref="A3:B4" headerRowCount="1">
-  <autoFilter ref="A3:B4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="referral_source" displayName="referral_source" ref="A3:B14" headerRowCount="1">
+  <autoFilter ref="A3:B14"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -4224,7 +4224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4258,7 +4258,77 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tbc</t>
+          <t>LA</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Home Office</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Local VCS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Primary Care</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Other Health</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HO Asylum Housing Providers (e.g. Serco)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Migrant Help</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Self-referrals</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DWP</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Peer to peer referrals</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Other</t>
         </is>
       </c>
     </row>

--- a/assets/spec/specification-dimensions.xlsx
+++ b/assets/spec/specification-dimensions.xlsx
@@ -16,31 +16,33 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="education_training_status" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gender" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wage_employment_entry" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nationality" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_comms_language" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_entry_outcome_type" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hours_of_employment" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_outcome_type" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="referral_source" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_status" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_sustain_accomodation" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_outcome_type" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wage_baseline" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_entry_accomodation" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_entry_status" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dispersal_area" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nationality" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_comms_language" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_entry_outcome_type" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hours_of_employment" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_outcome_type" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="referral_source" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_status" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_sustain_accomodation" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_outcome_type" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wage_baseline" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_entry_accomodation" sheetId="21" state="visible" r:id="rId21"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="intermediate_employment_outcome_type" sheetId="22" state="visible" r:id="rId22"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transgender" sheetId="23" state="visible" r:id="rId23"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="highest_qualification_achieved" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_social" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="education_training_status_sustain" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="prior_employment" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_baseline_accommodation" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="education_training_status_entry" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employed_in_home_country" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wage_employment_sustain" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_digital" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_sustain_status" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hours_of_employment_entry" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="primary_employment_entry_status" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="education_training_status_sustain" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="prior_employment" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_baseline_accommodation" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="education_training_status_entry" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employed_in_home_country" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="secondary_employment_entry_status" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wage_employment_sustain" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_digital" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_sustain_status" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hours_of_employment_entry" sheetId="36" state="visible" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -189,7 +191,18 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="nationality" displayName="nationality" ref="A3:B252" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="dispersal_area" displayName="dispersal_area" ref="A3:B29" headerRowCount="1">
+  <autoFilter ref="A3:B29"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="nationality" displayName="nationality" ref="A3:B252" headerRowCount="1">
   <autoFilter ref="A3:B252"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -199,8 +212,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="integration_comms_language" displayName="integration_comms_language" ref="A3:B4" headerRowCount="1">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="integration_comms_language" displayName="integration_comms_language" ref="A3:B4" headerRowCount="1">
   <autoFilter ref="A3:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -210,8 +223,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="employment_entry_outcome_type" displayName="employment_entry_outcome_type" ref="A3:B5" headerRowCount="1">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="employment_entry_outcome_type" displayName="employment_entry_outcome_type" ref="A3:B5" headerRowCount="1">
   <autoFilter ref="A3:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -221,8 +234,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="hours_of_employment" displayName="hours_of_employment" ref="A3:B9" headerRowCount="1">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="hours_of_employment" displayName="hours_of_employment" ref="A3:B9" headerRowCount="1">
   <autoFilter ref="A3:B9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -232,8 +245,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="integration_outcome_type" displayName="integration_outcome_type" ref="A3:B6" headerRowCount="1">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="integration_outcome_type" displayName="integration_outcome_type" ref="A3:B6" headerRowCount="1">
   <autoFilter ref="A3:B6"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -243,8 +256,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="referral_source" displayName="referral_source" ref="A3:B14" headerRowCount="1">
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="referral_source" displayName="referral_source" ref="A3:B14" headerRowCount="1">
   <autoFilter ref="A3:B14"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -254,8 +267,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="employment_status" displayName="employment_status" ref="A3:B11" headerRowCount="1">
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="employment_status" displayName="employment_status" ref="A3:B11" headerRowCount="1">
   <autoFilter ref="A3:B11"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -265,8 +278,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="housing_sustain_accomodation" displayName="housing_sustain_accomodation" ref="A3:B6" headerRowCount="1">
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="housing_sustain_accomodation" displayName="housing_sustain_accomodation" ref="A3:B6" headerRowCount="1">
   <autoFilter ref="A3:B6"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -276,20 +289,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="employment_outcome_type" displayName="employment_outcome_type" ref="A3:B14" headerRowCount="1">
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="employment_outcome_type" displayName="employment_outcome_type" ref="A3:B14" headerRowCount="1">
   <autoFilter ref="A3:B14"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="wage_baseline" displayName="wage_baseline" ref="A3:B4" headerRowCount="1">
-  <autoFilter ref="A3:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -310,8 +312,8 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="housing_entry_accomodation" displayName="housing_entry_accomodation" ref="A3:B6" headerRowCount="1">
-  <autoFilter ref="A3:B6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="wage_baseline" displayName="wage_baseline" ref="A3:B4" headerRowCount="1">
+  <autoFilter ref="A3:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -321,8 +323,8 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="employment_entry_status" displayName="employment_entry_status" ref="A3:B9" headerRowCount="1">
-  <autoFilter ref="A3:B9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="housing_entry_accomodation" displayName="housing_entry_accomodation" ref="A3:B6" headerRowCount="1">
+  <autoFilter ref="A3:B6"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -376,7 +378,18 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="education_training_status_sustain" displayName="education_training_status_sustain" ref="A3:B5" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="primary_employment_entry_status" displayName="primary_employment_entry_status" ref="A3:B9" headerRowCount="1">
+  <autoFilter ref="A3:B9"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="education_training_status_sustain" displayName="education_training_status_sustain" ref="A3:B5" headerRowCount="1">
   <autoFilter ref="A3:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -386,8 +399,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="prior_employment" displayName="prior_employment" ref="A3:B6" headerRowCount="1">
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="prior_employment" displayName="prior_employment" ref="A3:B6" headerRowCount="1">
   <autoFilter ref="A3:B6"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -397,20 +410,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="housing_baseline_accommodation" displayName="housing_baseline_accommodation" ref="A3:B4" headerRowCount="1">
-  <autoFilter ref="A3:B4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="education_training_status_entry" displayName="education_training_status_entry" ref="A3:B5" headerRowCount="1">
-  <autoFilter ref="A3:B5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="housing_baseline_accommodation" displayName="housing_baseline_accommodation" ref="A3:B11" headerRowCount="1">
+  <autoFilter ref="A3:B11"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -431,7 +433,7 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="employed_in_home_country" displayName="employed_in_home_country" ref="A3:B5" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="education_training_status_entry" displayName="education_training_status_entry" ref="A3:B5" headerRowCount="1">
   <autoFilter ref="A3:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -442,7 +444,29 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="wage_employment_sustain" displayName="wage_employment_sustain" ref="A3:B4" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="employed_in_home_country" displayName="employed_in_home_country" ref="A3:B5" headerRowCount="1">
+  <autoFilter ref="A3:B5"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="secondary_employment_entry_status" displayName="secondary_employment_entry_status" ref="A3:B9" headerRowCount="1">
+  <autoFilter ref="A3:B9"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="wage_employment_sustain" displayName="wage_employment_sustain" ref="A3:B4" headerRowCount="1">
   <autoFilter ref="A3:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -452,8 +476,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="integration_digital" displayName="integration_digital" ref="A3:B4" headerRowCount="1">
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="integration_digital" displayName="integration_digital" ref="A3:B4" headerRowCount="1">
   <autoFilter ref="A3:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -463,8 +487,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="employment_sustain_status" displayName="employment_sustain_status" ref="A3:B9" headerRowCount="1">
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="employment_sustain_status" displayName="employment_sustain_status" ref="A3:B9" headerRowCount="1">
   <autoFilter ref="A3:B9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -474,8 +498,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="hours_of_employment_entry" displayName="hours_of_employment_entry" ref="A3:B9" headerRowCount="1">
+<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="hours_of_employment_entry" displayName="hours_of_employment_entry" ref="A3:B9" headerRowCount="1">
   <autoFilter ref="A3:B9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -927,6 +951,233 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>dispersal_area</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bolton Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bury Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Manchester City Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Oldham Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rochdale Borough Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Salford City Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Stockport Metropolitan Borough Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Tameside Metropolitan Borough Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Trafford Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Wigan Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Wolverhampton Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Coventry City Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Sandwell Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Birmingham City Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Plymouth City Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Darlington Borough Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Gateshead Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Hartlepool Borough Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Middlesbrough Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Newcastle City Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>North Tyneside Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Northumberland County Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Redcar and Cleveland Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>South Tyneside Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Stockton Council</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sunderland City Council</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3954,7 +4205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4006,7 +4257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4065,7 +4316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4152,7 +4403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4218,7 +4469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4340,7 +4591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4441,7 +4692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4507,7 +4758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4673,58 +4924,6 @@
       <c r="B14" t="inlineStr">
         <is>
           <t>another specified activity directly relevant to achieving the individual’s employment goals</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>wage_baseline</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>tbc</t>
         </is>
       </c>
     </row>
@@ -4801,6 +5000,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>wage_baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tbc</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4850,93 +5101,6 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Other safe and secure accommodation</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>employment_entry_status</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Working as an employee on a permanent contract (or on leave from employment, for example maternity or paternity leave)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Working as an employee on a temporary contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Working as an employee on a zero hours contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Working as an employee cash in hand</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Self employed or freelance (Freelance means that you are self-employed and work for different companies or people on particular pieces of work)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Other</t>
         </is>
       </c>
     </row>
@@ -5336,6 +5500,93 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>primary_employment_entry_status</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Working as an employee on a permanent contract (or on leave from employment, for example maternity or paternity leave)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Working as an employee on a temporary contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Working as an employee on a zero hours contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Working as an employee cash in hand</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Self employed or freelance (Freelance means that you are self-employed and work for different companies or people on particular pieces of work)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5389,7 +5640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5455,13 +5706,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5495,66 +5746,56 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tbc</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>education_training_status_entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>In formal education or training (for example, registered in college or university, an apprenticeship, or a government employment and training programme. This may be combined with paid employment)</t>
+          <t>Homeless and rough sleeping</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Not in formal education or training (i.e. not formally registered)</t>
+          <t>Homeless but not rough sleeping (e.g. living with friends or family)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Asylum accommodation</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Self-funded temporary accommodation (e.g. hotel)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Publicly funded temporary accommodation</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Renting - private sector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Renting - Local authority or housing association</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Other safe and secure accommodation</t>
         </is>
       </c>
     </row>
@@ -5660,7 +5901,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>employed_in_home_country</t>
+          <t>education_training_status_entry</t>
         </is>
       </c>
     </row>
@@ -5679,14 +5920,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>In formal education or training (for example, registered in college or university, an apprenticeship, or a government employment and training programme. This may be combined with paid employment)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not in formal education or training (i.e. not formally registered)</t>
         </is>
       </c>
     </row>
@@ -5699,6 +5940,152 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>employed_in_home_country</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>secondary_employment_entry_status</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Working as an employee on a permanent contract (or on leave from employment, for example maternity or paternity leave)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Working as an employee on a temporary contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Working as an employee on a zero hours contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Working as an employee cash in hand</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Self employed or freelance (Freelance means that you are self-employed and work for different companies or people on particular pieces of work)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5750,7 +6137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5802,7 +6189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5889,7 +6276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/assets/spec/specification-dimensions.xlsx
+++ b/assets/spec/specification-dimensions.xlsx
@@ -7,42 +7,27 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hours_of_employment_sustain" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="homelessness_baseline" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_family_composition" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="age_profile_of_dependents_uk" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="language_level_on_entry" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_dependents_uk" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gender" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wage_employment_entry" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dispersal_area" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nationality" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_comms_language" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_entry_outcome_type" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_status_baseline" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hours_of_employment" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_outcome_type" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="referral_source" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_sustain_accomodation" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_outcome_type" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wage_baseline" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_entry_accomodation" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="intermediate_employment_outcome_type" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transgender" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="highest_qualification_achieved" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="education_training_status_baseline" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_social" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="primary_employment_entry_status" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="education_training_status_sustain" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="prior_employment" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_baseline_accommodation" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="education_training_status_entry" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employed_in_home_country" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="secondary_employment_entry_status" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wage_employment_sustain" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_digital" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_sustain_status" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hours_of_employment_entry" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_family_composition" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="language_level_on_entry" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_dependents_uk" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gender" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_number_of_dependents_uk" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nationality" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_comms_language" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_entry_outcome_type" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_outcome_type" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="referral_source" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_outcome_type" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_entry_accomodation" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="intermediate_employment_outcome_type" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transgender" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="highest_qualification_achieved" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_social" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_entry_details" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_baseline_accommodation" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employed_in_home_country" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="economic_status" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_digital" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -180,7 +165,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="hours_of_employment_sustain" displayName="hours_of_employment_sustain" ref="A3:B9" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="current_family_composition" displayName="current_family_composition" ref="A3:B7" headerRowCount="1">
+  <autoFilter ref="A3:B7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="referral_source" displayName="referral_source" ref="A3:B4" headerRowCount="1">
+  <autoFilter ref="A3:B4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="employment_outcome_type" displayName="employment_outcome_type" ref="A3:B14" headerRowCount="1">
+  <autoFilter ref="A3:B14"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="housing_entry_accomodation" displayName="housing_entry_accomodation" ref="A3:B4" headerRowCount="1">
+  <autoFilter ref="A3:B4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="intermediate_employment_outcome_type" displayName="intermediate_employment_outcome_type" ref="A3:B14" headerRowCount="1">
+  <autoFilter ref="A3:B14"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="transgender" displayName="transgender" ref="A3:B6" headerRowCount="1">
+  <autoFilter ref="A3:B6"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="highest_qualification_achieved" displayName="highest_qualification_achieved" ref="A3:B9" headerRowCount="1">
   <autoFilter ref="A3:B9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -190,8 +241,118 @@
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="nationality" displayName="nationality" ref="A3:B252" headerRowCount="1">
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="integration_social" displayName="integration_social" ref="A3:B4" headerRowCount="1">
+  <autoFilter ref="A3:B4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="employment_entry_details" displayName="employment_entry_details" ref="A3:B7" headerRowCount="1">
+  <autoFilter ref="A3:B7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="housing_baseline_accommodation" displayName="housing_baseline_accommodation" ref="A3:B4" headerRowCount="1">
+  <autoFilter ref="A3:B4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="employed_in_home_country" displayName="employed_in_home_country" ref="A3:B5" headerRowCount="1">
+  <autoFilter ref="A3:B5"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="language_level_on_entry" displayName="language_level_on_entry" ref="A3:B11" headerRowCount="1">
+  <autoFilter ref="A3:B11"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="economic_status" displayName="economic_status" ref="A3:B14" headerRowCount="1">
+  <autoFilter ref="A3:B14"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="integration_digital" displayName="integration_digital" ref="A3:B4" headerRowCount="1">
+  <autoFilter ref="A3:B4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="current_dependents_uk" displayName="current_dependents_uk" ref="A3:B5" headerRowCount="1">
+  <autoFilter ref="A3:B5"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="gender" displayName="gender" ref="A3:B8" headerRowCount="1">
+  <autoFilter ref="A3:B8"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="current_number_of_dependents_uk" displayName="current_number_of_dependents_uk" ref="A3:B7" headerRowCount="1">
+  <autoFilter ref="A3:B7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="nationality" displayName="nationality" ref="A3:B252" headerRowCount="1">
   <autoFilter ref="A3:B252"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -201,8 +362,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="integration_comms_language" displayName="integration_comms_language" ref="A3:B4" headerRowCount="1">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="integration_comms_language" displayName="integration_comms_language" ref="A3:B4" headerRowCount="1">
   <autoFilter ref="A3:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -212,8 +373,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="employment_entry_outcome_type" displayName="employment_entry_outcome_type" ref="A3:B5" headerRowCount="1">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="employment_entry_outcome_type" displayName="employment_entry_outcome_type" ref="A3:B5" headerRowCount="1">
   <autoFilter ref="A3:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -223,350 +384,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="employment_status_baseline" displayName="employment_status_baseline" ref="A3:B11" headerRowCount="1">
-  <autoFilter ref="A3:B11"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="hours_of_employment" displayName="hours_of_employment" ref="A3:B9" headerRowCount="1">
-  <autoFilter ref="A3:B9"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="integration_outcome_type" displayName="integration_outcome_type" ref="A3:B6" headerRowCount="1">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="integration_outcome_type" displayName="integration_outcome_type" ref="A3:B6" headerRowCount="1">
   <autoFilter ref="A3:B6"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="referral_source" displayName="referral_source" ref="A3:B14" headerRowCount="1">
-  <autoFilter ref="A3:B14"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="housing_sustain_accomodation" displayName="housing_sustain_accomodation" ref="A3:B6" headerRowCount="1">
-  <autoFilter ref="A3:B6"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="employment_outcome_type" displayName="employment_outcome_type" ref="A3:B14" headerRowCount="1">
-  <autoFilter ref="A3:B14"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="wage_baseline" displayName="wage_baseline" ref="A3:B4" headerRowCount="1">
-  <autoFilter ref="A3:B4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="homelessness_baseline" displayName="homelessness_baseline" ref="A3:B5" headerRowCount="1">
-  <autoFilter ref="A3:B5"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="housing_entry_accomodation" displayName="housing_entry_accomodation" ref="A3:B6" headerRowCount="1">
-  <autoFilter ref="A3:B6"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="intermediate_employment_outcome_type" displayName="intermediate_employment_outcome_type" ref="A3:B14" headerRowCount="1">
-  <autoFilter ref="A3:B14"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="transgender" displayName="transgender" ref="A3:B6" headerRowCount="1">
-  <autoFilter ref="A3:B6"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="highest_qualification_achieved" displayName="highest_qualification_achieved" ref="A3:B9" headerRowCount="1">
-  <autoFilter ref="A3:B9"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="education_training_status_baseline" displayName="education_training_status_baseline" ref="A3:B5" headerRowCount="1">
-  <autoFilter ref="A3:B5"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="integration_social" displayName="integration_social" ref="A3:B4" headerRowCount="1">
-  <autoFilter ref="A3:B4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="primary_employment_entry_status" displayName="primary_employment_entry_status" ref="A3:B9" headerRowCount="1">
-  <autoFilter ref="A3:B9"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="education_training_status_sustain" displayName="education_training_status_sustain" ref="A3:B5" headerRowCount="1">
-  <autoFilter ref="A3:B5"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="prior_employment" displayName="prior_employment" ref="A3:B6" headerRowCount="1">
-  <autoFilter ref="A3:B6"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="housing_baseline_accommodation" displayName="housing_baseline_accommodation" ref="A3:B11" headerRowCount="1">
-  <autoFilter ref="A3:B11"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="current_family_composition" displayName="current_family_composition" ref="A3:B7" headerRowCount="1">
-  <autoFilter ref="A3:B7"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="education_training_status_entry" displayName="education_training_status_entry" ref="A3:B5" headerRowCount="1">
-  <autoFilter ref="A3:B5"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="employed_in_home_country" displayName="employed_in_home_country" ref="A3:B5" headerRowCount="1">
-  <autoFilter ref="A3:B5"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="secondary_employment_entry_status" displayName="secondary_employment_entry_status" ref="A3:B9" headerRowCount="1">
-  <autoFilter ref="A3:B9"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="wage_employment_sustain" displayName="wage_employment_sustain" ref="A3:B4" headerRowCount="1">
-  <autoFilter ref="A3:B4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="integration_digital" displayName="integration_digital" ref="A3:B4" headerRowCount="1">
-  <autoFilter ref="A3:B4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="employment_sustain_status" displayName="employment_sustain_status" ref="A3:B9" headerRowCount="1">
-  <autoFilter ref="A3:B9"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="hours_of_employment_entry" displayName="hours_of_employment_entry" ref="A3:B9" headerRowCount="1">
-  <autoFilter ref="A3:B9"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="age_profile_of_dependents_uk" displayName="age_profile_of_dependents_uk" ref="A3:B7" headerRowCount="1">
-  <autoFilter ref="A3:B7"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="language_level_on_entry" displayName="language_level_on_entry" ref="A3:B11" headerRowCount="1">
-  <autoFilter ref="A3:B11"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="current_dependents_uk" displayName="current_dependents_uk" ref="A3:B5" headerRowCount="1">
-  <autoFilter ref="A3:B5"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="gender" displayName="gender" ref="A3:B8" headerRowCount="1">
-  <autoFilter ref="A3:B8"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="wage_employment_entry" displayName="wage_employment_entry" ref="A3:B4" headerRowCount="1">
-  <autoFilter ref="A3:B4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="dispersal_area" displayName="dispersal_area" ref="A3:B29" headerRowCount="1">
-  <autoFilter ref="A3:B29"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -864,6 +684,603 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>current_family_composition</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>No care responsibilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Only care responsibilities outside UK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Any care responsibilities within UK and in same HH</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Only care responsibilities within UK and outside HH</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>referral_source</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tbc</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>employment_outcome_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>qualifications or skills</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Successful formal recognition and/or comparison of qualifications or skills</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>training course</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Completion of relevant training course</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mentoring and/or coaching</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Completion of 10 hours+ mentoring and/or coaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>employability</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Completion of 10 hours+ employability training</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Volunteering</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Volunteering - at least 10 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>work experience</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Work experience - at least 5 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Internship</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Internship- maximum 10 days, unless paid for at the National Minimum Wage (or above) for people aged 18-22 or the National Living Wage (or above) for people aged 23+*</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sector-specific language training</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Completion of sector-specific language training which is additional to the mainstream.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>business plan for self-employment</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Developed business plan for self-employment</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Registered business for self-employment</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Registered business for self-employment</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>another specified activity</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>another specified activity directly relevant to achieving the individual’s employment goals</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>housing_entry_accomodation</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tbc</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>intermediate_employment_outcome_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>qualifications or skills</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Successful formal recognition and/or comparison of qualifications or skills</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>training course</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Completion of relevant training course</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mentoring and/or coaching</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Completion of 10 hours+ mentoring and/or coaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>employability</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Completion of 10 hours+ employability training</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Volunteering</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Volunteering - at least 10 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>work experience</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Work experience - at least 5 days</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Internship</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Internship- maximum 10 days, unless paid for at the National Minimum Wage (or above) for people aged 18-22 or the National Living Wage (or above) for people aged 23+*</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sector-specific language training</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Completion of sector-specific language training which is additional to the mainstream.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>business plan for self-employment</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Developed business plan for self-employment</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Registered business for self-employment</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Registered business for self-employment</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>another specified activity</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>another specified activity directly relevant to achieving the individual’s employment goals</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>transgender</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Identify as transgender</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Do not identify as Transgender</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -879,7 +1296,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>hours_of_employment_sustain</t>
+          <t>highest_qualification_achieved</t>
         </is>
       </c>
     </row>
@@ -898,42 +1315,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0 to 7 hours</t>
+          <t>Below formal levels</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8 to 15 hours</t>
+          <t>Entry level</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>16 to 30 hours</t>
+          <t>Level 1-2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>31 to 48 hours</t>
+          <t>Level 3-4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>49 or more hours</t>
+          <t>Level 5+</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Don't know</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
@@ -945,7 +1362,730 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>integration_social</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tbc</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>employment_entry_details</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PT 0-15 hours per week</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PT 16-30 hours per week</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FT 31 hours +</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Government employment &amp; training programme</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>housing_baseline_accommodation</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tbc</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>employed_in_home_country</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>language_level_on_entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Below formal levels</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pre-entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Entry level 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Entry level 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Entry level 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Level 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Level 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Beyond Level 2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>economic_status</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PT 0-15 hours per week</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PT 16-30 hours per week</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FT 31 hours +</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Self employed</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Government employment &amp; training programme</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Unpaid work for relatives business</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Unemployed (but looking/available for work)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Looking after family/home</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Temporarily sick/injured</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Long term sick or disabled</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Retired</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>integration_digital</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tbc</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>current_dependents_uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Non-binary</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>current_number_of_dependents_uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>11-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Caring responsibilities for an adult</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3978,7 +5118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4030,7 +5170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4089,230 +5229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>employment_status_baseline</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PC</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Working as an employee on a permanent contract (or on leave from employment, for example maternity or paternity leave)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TC</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Working as an employee on a temporary contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ZHC</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Working as an employee on a zero hours contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CIH</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Working as an employee cash in hand</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Self employed or freelance (Freelance means that you are self-employed and work for different companies or people on particular pieces of work)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ULA</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Unemployed and looking/available for work immediately (in the next two weeks)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>UNLA</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Unemployed and NOT looking/available for work immediately (for example, retired, looking after family or long term sick or disabled)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>hours_of_employment</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>0 to 7 hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>8 to 15 hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>16 to 30 hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>31 to 48 hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>49 or more hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Don't know</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4376,2488 +5293,4 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>referral_source</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>LA</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Local Authority</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Home Office</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Local VCS</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Local voluntary and community sector</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Primary Care</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Other Health</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>HO providers</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Home Office Asylum Housing Providers (e.g. Serco)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Migrant Help</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Self-referrals</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>DWP</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Governmentment Departmnet for Work and Pensions</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Peer</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Peer to peer referrals</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Any other referral source</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>housing_sustain_accomodation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Renting - private sector</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Renting - Local authority or housing association</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Other safe and secure accommodation</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>employment_outcome_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>qualifications or skills</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Successful formal recognition and/or comparison of qualifications or skills</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>training course</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Completion of relevant training course</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>mentoring and/or coaching</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Completion of 10 hours+ mentoring and/or coaching</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>employability</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Completion of 10 hours+ employability training</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Volunteering</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Volunteering - at least 10 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>work experience</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Work experience - at least 5 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Internship</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Internship- maximum 10 days, unless paid for at the National Minimum Wage (or above) for people aged 18-22 or the National Living Wage (or above) for people aged 23+*</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>sector-specific language training</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Completion of sector-specific language training which is additional to the mainstream.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>business plan for self-employment</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Developed business plan for self-employment</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Registered business for self-employment</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Registered business for self-employment</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>another specified activity</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>another specified activity directly relevant to achieving the individual’s employment goals</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>wage_baseline</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>tbc</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>homelessness_baseline</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Statutory homelessness (i.e. main duty/priority group)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Non-statutory homelessness (i.e. NOT main duty/priority group)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>housing_entry_accomodation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Renting - private sector</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Renting - Local authority or housing association</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Other safe and secure accommodation</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>intermediate_employment_outcome_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>qualifications or skills</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Successful formal recognition and/or comparison of qualifications or skills</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>training course</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Completion of relevant training course</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>mentoring and/or coaching</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Completion of 10 hours+ mentoring and/or coaching</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>employability</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Completion of 10 hours+ employability training</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Volunteering</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Volunteering - at least 10 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>work experience</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Work experience - at least 5 days</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Internship</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Internship- maximum 10 days, unless paid for at the National Minimum Wage (or above) for people aged 18-22 or the National Living Wage (or above) for people aged 23+*</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>sector-specific language training</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Completion of sector-specific language training which is additional to the mainstream.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>business plan for self-employment</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Developed business plan for self-employment</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Registered business for self-employment</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Registered business for self-employment</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>another specified activity</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>another specified activity directly relevant to achieving the individual’s employment goals</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>transgender</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Identify as transgender</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Do not identify as Transgender</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Prefer not to say</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>highest_qualification_achieved</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Below formal levels</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Entry level</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Level 1-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Level 3-4</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Level 5+</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>education_training_status_baseline</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>formal education</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>In formal education or training (for example, registered in college or university, an apprenticeship, or a government employment and training programme. This may be combined with paid employment)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Not in formal education</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Not in formal education or training (i.e. not formally registered)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>integration_social</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>tbc</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>primary_employment_entry_status</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Working as an employee on a permanent contract (or on leave from employment, for example maternity or paternity leave)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Working as an employee on a temporary contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Working as an employee on a zero hours contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Working as an employee cash in hand</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Self employed or freelance (Freelance means that you are self-employed and work for different companies or people on particular pieces of work)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>education_training_status_sustain</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>In formal education or training (for example, registered in college or university, an apprenticeship, or a government employment and training programme. This may be combined with paid employment)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Not in formal education or training (i.e. not formally registered)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>prior_employment</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Don't know</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>housing_baseline_accommodation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Homeless and rough sleeping</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Homeless but not rough sleeping (e.g. living with friends or family)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Asylum accommodation</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Self-funded temporary accommodation (e.g. hotel)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Publicly funded temporary accommodation</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Renting - private sector</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Renting - Local authority or housing association</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Other safe and secure accommodation</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>current_family_composition</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>No care responsibilities</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Only care responsibilities outside UK</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Any care responsibilities within UK and in same HH</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Only care responsibilities within UK and outside HH</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>education_training_status_entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>In formal education or training (for example, registered in college or university, an apprenticeship, or a government employment and training programme. This may be combined with paid employment)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Not in formal education or training (i.e. not formally registered)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>employed_in_home_country</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>secondary_employment_entry_status</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Working as an employee on a permanent contract (or on leave from employment, for example maternity or paternity leave)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Working as an employee on a temporary contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Working as an employee on a zero hours contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Working as an employee cash in hand</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Self employed or freelance (Freelance means that you are self-employed and work for different companies or people on particular pieces of work)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>wage_employment_sustain</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>tbc</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>integration_digital</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>tbc</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>employment_sustain_status</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Working as an employee on a permanent contract (or on leave from employment, for example maternity or paternity leave)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Working as an employee on a temporary contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Working as an employee on a zero hours contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Working as an employee cash in hand</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Self employed or freelance (Freelance means that you are self-employed and work for different companies or people on particular pieces of work)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>hours_of_employment_entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>0 to 7 hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>8 to 15 hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>16 to 30 hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>31 to 48 hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>49 or more hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Don't know</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>age_profile_of_dependents_uk</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>0-4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>5-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>11-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Caring responsibilities for an adult</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>language_level_on_entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Below formal levels</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pre-entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Entry level 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Entry level 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Entry level 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Level 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Level 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Beyond Level 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>current_dependents_uk</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Woman</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Non-binary</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Prefer not to say</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>wage_employment_entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>tbc</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>dispersal_area</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Bolton Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Bury Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Manchester City Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Oldham Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Rochdale Borough Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Salford City Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Stockport Metropolitan Borough Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Tameside Metropolitan Borough Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Trafford Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Wigan Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Wolverhampton Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Coventry City Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Sandwell Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Birmingham City Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Plymouth City Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Darlington Borough Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Gateshead Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Hartlepool Borough Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Middlesbrough Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Newcastle City Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>North Tyneside Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Northumberland County Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Redcar and Cleveland Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>South Tyneside Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Stockton Council</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Sunderland City Council</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/assets/spec/specification-dimensions.xlsx
+++ b/assets/spec/specification-dimensions.xlsx
@@ -7,14 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hours_of_employment_sustain" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="homelessness_baseline" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_family_composition" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="age_profile_of_dependents_uk" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="language_level_on_entry" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_dependents_uk" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gender" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wage_employment_entry" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="homelessness_baseline" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="age_profile_of_dependents_uk" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="language_level_on_entry" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="current_dependents_uk" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wage" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="education_training_status" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_accomodation" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gender" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dispersal_area" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nationality" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_comms_language" sheetId="11" state="visible" r:id="rId11"/>
@@ -23,26 +23,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hours_of_employment" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_outcome_type" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="referral_source" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_sustain_accomodation" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_outcome_type" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wage_baseline" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_entry_accomodation" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="intermediate_employment_outcome_type" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transgender" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="highest_qualification_achieved" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="education_training_status_baseline" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_social" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="primary_employment_entry_status" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="education_training_status_sustain" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="prior_employment" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_baseline_accommodation" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="education_training_status_entry" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employed_in_home_country" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="secondary_employment_entry_status" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wage_employment_sustain" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_digital" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_sustain_status" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hours_of_employment_entry" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_status" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="intermediate_employment_outcome_type" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="highest_qualification_achieved" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_social" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="prior_employment" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_baseline_accommodation" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employed_in_home_country" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_digital" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -180,8 +168,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="hours_of_employment_sustain" displayName="hours_of_employment_sustain" ref="A3:B9" headerRowCount="1">
-  <autoFilter ref="A3:B9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="homelessness_baseline" displayName="homelessness_baseline" ref="A3:B5" headerRowCount="1">
+  <autoFilter ref="A3:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -268,8 +256,8 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="housing_sustain_accomodation" displayName="housing_sustain_accomodation" ref="A3:B6" headerRowCount="1">
-  <autoFilter ref="A3:B6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="employment_status" displayName="employment_status" ref="A3:B9" headerRowCount="1">
+  <autoFilter ref="A3:B9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -279,7 +267,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="employment_outcome_type" displayName="employment_outcome_type" ref="A3:B14" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="intermediate_employment_outcome_type" displayName="intermediate_employment_outcome_type" ref="A3:B14" headerRowCount="1">
   <autoFilter ref="A3:B14"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -290,7 +278,29 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="wage_baseline" displayName="wage_baseline" ref="A3:B4" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="highest_qualification_achieved" displayName="highest_qualification_achieved" ref="A3:B9" headerRowCount="1">
+  <autoFilter ref="A3:B9"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="age_profile_of_dependents_uk" displayName="age_profile_of_dependents_uk" ref="A3:B7" headerRowCount="1">
+  <autoFilter ref="A3:B7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="integration_social" displayName="integration_social" ref="A3:B4" headerRowCount="1">
   <autoFilter ref="A3:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -300,8 +310,30 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="homelessness_baseline" displayName="homelessness_baseline" ref="A3:B5" headerRowCount="1">
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="prior_employment" displayName="prior_employment" ref="A3:B6" headerRowCount="1">
+  <autoFilter ref="A3:B6"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="housing_baseline_accommodation" displayName="housing_baseline_accommodation" ref="A3:B11" headerRowCount="1">
+  <autoFilter ref="A3:B11"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="employed_in_home_country" displayName="employed_in_home_country" ref="A3:B5" headerRowCount="1">
   <autoFilter ref="A3:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -311,9 +343,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="housing_entry_accomodation" displayName="housing_entry_accomodation" ref="A3:B6" headerRowCount="1">
-  <autoFilter ref="A3:B6"/>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="integration_digital" displayName="integration_digital" ref="A3:B4" headerRowCount="1">
+  <autoFilter ref="A3:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -322,9 +354,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="intermediate_employment_outcome_type" displayName="intermediate_employment_outcome_type" ref="A3:B14" headerRowCount="1">
-  <autoFilter ref="A3:B14"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="language_level_on_entry" displayName="language_level_on_entry" ref="A3:B11" headerRowCount="1">
+  <autoFilter ref="A3:B11"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -333,30 +365,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="transgender" displayName="transgender" ref="A3:B6" headerRowCount="1">
-  <autoFilter ref="A3:B6"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="highest_qualification_achieved" displayName="highest_qualification_achieved" ref="A3:B9" headerRowCount="1">
-  <autoFilter ref="A3:B9"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="education_training_status_baseline" displayName="education_training_status_baseline" ref="A3:B5" headerRowCount="1">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="current_dependents_uk" displayName="current_dependents_uk" ref="A3:B5" headerRowCount="1">
   <autoFilter ref="A3:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -366,8 +376,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="integration_social" displayName="integration_social" ref="A3:B4" headerRowCount="1">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="wage" displayName="wage" ref="A3:B4" headerRowCount="1">
   <autoFilter ref="A3:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -377,162 +387,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="primary_employment_entry_status" displayName="primary_employment_entry_status" ref="A3:B9" headerRowCount="1">
-  <autoFilter ref="A3:B9"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="education_training_status_sustain" displayName="education_training_status_sustain" ref="A3:B5" headerRowCount="1">
-  <autoFilter ref="A3:B5"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="prior_employment" displayName="prior_employment" ref="A3:B6" headerRowCount="1">
-  <autoFilter ref="A3:B6"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="housing_baseline_accommodation" displayName="housing_baseline_accommodation" ref="A3:B11" headerRowCount="1">
-  <autoFilter ref="A3:B11"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="current_family_composition" displayName="current_family_composition" ref="A3:B7" headerRowCount="1">
-  <autoFilter ref="A3:B7"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="education_training_status_entry" displayName="education_training_status_entry" ref="A3:B5" headerRowCount="1">
-  <autoFilter ref="A3:B5"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="employed_in_home_country" displayName="employed_in_home_country" ref="A3:B5" headerRowCount="1">
-  <autoFilter ref="A3:B5"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="secondary_employment_entry_status" displayName="secondary_employment_entry_status" ref="A3:B9" headerRowCount="1">
-  <autoFilter ref="A3:B9"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="wage_employment_sustain" displayName="wage_employment_sustain" ref="A3:B4" headerRowCount="1">
-  <autoFilter ref="A3:B4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="integration_digital" displayName="integration_digital" ref="A3:B4" headerRowCount="1">
-  <autoFilter ref="A3:B4"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="employment_sustain_status" displayName="employment_sustain_status" ref="A3:B9" headerRowCount="1">
-  <autoFilter ref="A3:B9"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="hours_of_employment_entry" displayName="hours_of_employment_entry" ref="A3:B9" headerRowCount="1">
-  <autoFilter ref="A3:B9"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="age_profile_of_dependents_uk" displayName="age_profile_of_dependents_uk" ref="A3:B7" headerRowCount="1">
-  <autoFilter ref="A3:B7"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="language_level_on_entry" displayName="language_level_on_entry" ref="A3:B11" headerRowCount="1">
-  <autoFilter ref="A3:B11"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="current_dependents_uk" displayName="current_dependents_uk" ref="A3:B5" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="education_training_status" displayName="education_training_status" ref="A3:B5" headerRowCount="1">
   <autoFilter ref="A3:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -543,8 +399,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="gender" displayName="gender" ref="A3:B8" headerRowCount="1">
-  <autoFilter ref="A3:B8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="housing_accomodation" displayName="housing_accomodation" ref="A3:B6" headerRowCount="1">
+  <autoFilter ref="A3:B6"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -554,8 +410,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="wage_employment_entry" displayName="wage_employment_entry" ref="A3:B4" headerRowCount="1">
-  <autoFilter ref="A3:B4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="gender" displayName="gender" ref="A3:B8" headerRowCount="1">
+  <autoFilter ref="A3:B8"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -864,7 +720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,7 +735,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>hours_of_employment_sustain</t>
+          <t>homelessness_baseline</t>
         </is>
       </c>
     </row>
@@ -898,42 +754,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0 to 7 hours</t>
+          <t>Statutory homelessness</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>i.e. main duty/priority group</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8 to 15 hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>16 to 30 hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>31 to 48 hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>49 or more hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Don't know</t>
+          <t>Non-statutory homelessness</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>i.e. NOT main duty/priority group</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4551,7 +4389,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>housing_sustain_accomodation</t>
+          <t>employment_status</t>
         </is>
       </c>
     </row>
@@ -4570,21 +4408,67 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Renting - private sector</t>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Working as an employee on a permanent contract (or on leave from employment, for example maternity or paternity leave)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Renting - Local authority or housing association</t>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Working as an employee on a temporary contract</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Other safe and secure accommodation</t>
+          <t>ZHC</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Working as an employee on a zero hours contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CIH</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Working as an employee cash in hand</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Self employed or freelance (Freelance means that you are self-employed and work for different companies or people on particular pieces of work)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4501,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>employment_outcome_type</t>
+          <t>intermediate_employment_outcome_type</t>
         </is>
       </c>
     </row>
@@ -4774,6 +4658,166 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>highest_qualification_achieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Below formal levels</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Level 1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Level 3-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Level 5+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>age_profile_of_dependents_uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>11-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Caring responsibilities for an adult</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4794,7 +4838,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>wage_baseline</t>
+          <t>integration_social</t>
         </is>
       </c>
     </row>
@@ -4825,7 +4869,174 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>prior_employment</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Don't know</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>housing_baseline_accommodation</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Homeless and rough sleeping</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Homeless but not rough sleeping (e.g. living with friends or family)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Asylum accommodation</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Self-funded temporary accommodation (e.g. hotel)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Publicly funded temporary accommodation</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Renting - private sector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Renting - Local authority or housing association</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Other safe and secure accommodation</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4846,7 +5057,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>homelessness_baseline</t>
+          <t>employed_in_home_country</t>
         </is>
       </c>
     </row>
@@ -4865,14 +5076,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Statutory homelessness (i.e. main duty/priority group)</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Non-statutory homelessness (i.e. NOT main duty/priority group)</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -4884,13 +5095,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4905,7 +5116,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>housing_entry_accomodation</t>
+          <t>integration_digital</t>
         </is>
       </c>
     </row>
@@ -4924,21 +5135,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Renting - private sector</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Renting - Local authority or housing association</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Other safe and secure accommodation</t>
+          <t>tbc</t>
         </is>
       </c>
     </row>
@@ -4950,13 +5147,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4971,7 +5168,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>intermediate_employment_outcome_type</t>
+          <t>language_level_on_entry</t>
         </is>
       </c>
     </row>
@@ -4990,132 +5187,56 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>qualifications or skills</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Successful formal recognition and/or comparison of qualifications or skills</t>
+          <t>Below formal levels</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>training course</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Completion of relevant training course</t>
+          <t>Pre-entry</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mentoring and/or coaching</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Completion of 10 hours+ mentoring and/or coaching</t>
+          <t>Entry level 1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>employability</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Completion of 10 hours+ employability training</t>
+          <t>Entry level 2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Volunteering</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Volunteering - at least 10 days</t>
+          <t>Entry level 3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>work experience</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Work experience - at least 5 days</t>
+          <t>Level 1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Internship</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Internship- maximum 10 days, unless paid for at the National Minimum Wage (or above) for people aged 18-22 or the National Living Wage (or above) for people aged 23+*</t>
+          <t>Level 2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sector-specific language training</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Completion of sector-specific language training which is additional to the mainstream.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>business plan for self-employment</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Developed business plan for self-employment</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Registered business for self-employment</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Registered business for self-employment</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>another specified activity</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>another specified activity directly relevant to achieving the individual’s employment goals</t>
+          <t>Beyond Level 2</t>
         </is>
       </c>
     </row>
@@ -5127,160 +5248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>transgender</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Identify as transgender</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Do not identify as Transgender</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Prefer not to say</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>highest_qualification_achieved</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Below formal levels</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Entry level</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Level 1-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Level 3-4</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Level 5+</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5301,7 +5269,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>education_training_status_baseline</t>
+          <t>current_dependents_uk</t>
         </is>
       </c>
     </row>
@@ -5320,24 +5288,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>formal education</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>In formal education or training (for example, registered in college or university, an apprenticeship, or a government employment and training programme. This may be combined with paid employment)</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Not in formal education</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Not in formal education or training (i.e. not formally registered)</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5370,7 +5328,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>integration_social</t>
+          <t>wage</t>
         </is>
       </c>
     </row>
@@ -5390,1049 +5348,6 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>tbc</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>primary_employment_entry_status</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Working as an employee on a permanent contract (or on leave from employment, for example maternity or paternity leave)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Working as an employee on a temporary contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Working as an employee on a zero hours contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Working as an employee cash in hand</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Self employed or freelance (Freelance means that you are self-employed and work for different companies or people on particular pieces of work)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>education_training_status_sustain</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>In formal education or training (for example, registered in college or university, an apprenticeship, or a government employment and training programme. This may be combined with paid employment)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Not in formal education or training (i.e. not formally registered)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>prior_employment</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Don't know</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>housing_baseline_accommodation</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Homeless and rough sleeping</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Homeless but not rough sleeping (e.g. living with friends or family)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Asylum accommodation</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Self-funded temporary accommodation (e.g. hotel)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Publicly funded temporary accommodation</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Renting - private sector</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Renting - Local authority or housing association</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Other safe and secure accommodation</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>current_family_composition</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>No care responsibilities</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Only care responsibilities outside UK</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Any care responsibilities within UK and in same HH</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Only care responsibilities within UK and outside HH</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>education_training_status_entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>In formal education or training (for example, registered in college or university, an apprenticeship, or a government employment and training programme. This may be combined with paid employment)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Not in formal education or training (i.e. not formally registered)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>employed_in_home_country</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>secondary_employment_entry_status</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Working as an employee on a permanent contract (or on leave from employment, for example maternity or paternity leave)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Working as an employee on a temporary contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Working as an employee on a zero hours contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Working as an employee cash in hand</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Self employed or freelance (Freelance means that you are self-employed and work for different companies or people on particular pieces of work)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>wage_employment_sustain</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>tbc</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>integration_digital</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>tbc</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>employment_sustain_status</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Working as an employee on a permanent contract (or on leave from employment, for example maternity or paternity leave)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Working as an employee on a temporary contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Working as an employee on a zero hours contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Working as an employee cash in hand</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Self employed or freelance (Freelance means that you are self-employed and work for different companies or people on particular pieces of work)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>hours_of_employment_entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>0 to 7 hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>8 to 15 hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>16 to 30 hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>31 to 48 hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>49 or more hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Don't know</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>age_profile_of_dependents_uk</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>0-4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>5-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>11-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Caring responsibilities for an adult</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>language_level_on_entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Below formal levels</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pre-entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Entry level 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Entry level 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Entry level 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Level 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Level 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Beyond Level 2</t>
         </is>
       </c>
     </row>
@@ -6465,7 +5380,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>current_dependents_uk</t>
+          <t>education_training_status</t>
         </is>
       </c>
     </row>
@@ -6484,14 +5399,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>formal education</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>In formal education or training (for example, registered in college or university, an apprenticeship, or a government employment and training programme. This may be combined with paid employment)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not in formal education</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Not in formal education or training (i.e. not formally registered)</t>
         </is>
       </c>
     </row>
@@ -6504,6 +5429,72 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>housing_accomodation</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Renting - private sector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Renting - Local authority or housing association</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Other safe and secure accommodation</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6572,58 +5563,6 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Prefer not to say</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>wage_employment_entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>tbc</t>
         </is>
       </c>
     </row>

--- a/assets/spec/specification-dimensions.xlsx
+++ b/assets/spec/specification-dimensions.xlsx
@@ -5468,6 +5468,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>RPC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Renting - private sector</t>
         </is>
       </c>
@@ -5475,12 +5480,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>RLA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Renting - Local authority or housing association</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Other safe and secure accommodation</t>
         </is>

--- a/assets/spec/specification-dimensions.xlsx
+++ b/assets/spec/specification-dimensions.xlsx
@@ -24,24 +24,27 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transgender" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="highest_qualification_achieved" sheetId="16" state="visible" r:id="rId16"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_baseline_accommodation" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nationality" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="primary_employment_entry_status" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dispersal_area" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_status_baseline" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="language_level_on_entry" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="education_training_status_sustain" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hours_of_employment_sustain" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="homelessness_baseline" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="month_of_birth" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_outcome_type" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="education_training_status_entry" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="secondary_employment_entry_status" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hours_of_employment" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="age_profile_of_dependants_uk" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="month" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_status" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employed_in_home_country" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hours_of_employment_entry" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wage_employment_entry" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nationality" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="primary_employment_entry_status" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dispersal_area" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_status_baseline" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="language_level_on_entry" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="education_training_status_sustain" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hours_of_employment_sustain" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="homelessness_baseline" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="month_of_birth" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="integration_outcome_type" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="housing_sustain_accomodation" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="education_training_status_entry" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="secondary_employment_entry_status" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wage_employment_sustain" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hours_of_employment" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="age_profile_of_dependants_uk" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="month" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employment_status" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="employed_in_home_country" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hours_of_employment_entry" sheetId="38" state="visible" r:id="rId38"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -278,8 +281,8 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="nationality" displayName="nationality" ref="A3:B252" headerRowCount="1">
-  <autoFilter ref="A3:B252"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="wage_employment_entry" displayName="wage_employment_entry" ref="A3:B4" headerRowCount="1">
+  <autoFilter ref="A3:B4"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -289,8 +292,8 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="primary_employment_entry_status" displayName="primary_employment_entry_status" ref="A3:B9" headerRowCount="1">
-  <autoFilter ref="A3:B9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="nationality" displayName="nationality" ref="A3:B252" headerRowCount="1">
+  <autoFilter ref="A3:B252"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -311,7 +314,18 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="dispersal_area" displayName="dispersal_area" ref="A3:B29" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="primary_employment_entry_status" displayName="primary_employment_entry_status" ref="A3:B9" headerRowCount="1">
+  <autoFilter ref="A3:B9"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="dispersal_area" displayName="dispersal_area" ref="A3:B29" headerRowCount="1">
   <autoFilter ref="A3:B29"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -321,8 +335,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="employment_status_baseline" displayName="employment_status_baseline" ref="A3:B11" headerRowCount="1">
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="employment_status_baseline" displayName="employment_status_baseline" ref="A3:B11" headerRowCount="1">
   <autoFilter ref="A3:B11"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -332,8 +346,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="language_level_on_entry" displayName="language_level_on_entry" ref="A3:B11" headerRowCount="1">
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="language_level_on_entry" displayName="language_level_on_entry" ref="A3:B11" headerRowCount="1">
   <autoFilter ref="A3:B11"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -343,8 +357,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="education_training_status_sustain" displayName="education_training_status_sustain" ref="A3:B5" headerRowCount="1">
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="education_training_status_sustain" displayName="education_training_status_sustain" ref="A3:B5" headerRowCount="1">
   <autoFilter ref="A3:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -354,8 +368,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="hours_of_employment_sustain" displayName="hours_of_employment_sustain" ref="A3:B9" headerRowCount="1">
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="hours_of_employment_sustain" displayName="hours_of_employment_sustain" ref="A3:B9" headerRowCount="1">
   <autoFilter ref="A3:B9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -365,8 +379,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="homelessness_baseline" displayName="homelessness_baseline" ref="A3:B5" headerRowCount="1">
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="homelessness_baseline" displayName="homelessness_baseline" ref="A3:B5" headerRowCount="1">
   <autoFilter ref="A3:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -376,8 +390,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="month_of_birth" displayName="month_of_birth" ref="A3:B15" headerRowCount="1">
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="month_of_birth" displayName="month_of_birth" ref="A3:B15" headerRowCount="1">
   <autoFilter ref="A3:B15"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -387,8 +401,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="integration_outcome_type" displayName="integration_outcome_type" ref="A3:B6" headerRowCount="1">
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="integration_outcome_type" displayName="integration_outcome_type" ref="A3:B6" headerRowCount="1">
   <autoFilter ref="A3:B6"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -398,20 +412,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="education_training_status_entry" displayName="education_training_status_entry" ref="A3:B5" headerRowCount="1">
-  <autoFilter ref="A3:B5"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Value"/>
-    <tableColumn id="2" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
-</file>
-
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="secondary_employment_entry_status" displayName="secondary_employment_entry_status" ref="A3:B9" headerRowCount="1">
-  <autoFilter ref="A3:B9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="housing_sustain_accomodation" displayName="housing_sustain_accomodation" ref="A3:B6" headerRowCount="1">
+  <autoFilter ref="A3:B6"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
     <tableColumn id="2" name="Description"/>
@@ -432,7 +435,18 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="hours_of_employment" displayName="hours_of_employment" ref="A3:B9" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="education_training_status_entry" displayName="education_training_status_entry" ref="A3:B5" headerRowCount="1">
+  <autoFilter ref="A3:B5"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="secondary_employment_entry_status" displayName="secondary_employment_entry_status" ref="A3:B9" headerRowCount="1">
   <autoFilter ref="A3:B9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -442,8 +456,30 @@
 </table>
 </file>
 
-<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="age_profile_of_dependants_uk" displayName="age_profile_of_dependants_uk" ref="A3:B7" headerRowCount="1">
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="wage_employment_sustain" displayName="wage_employment_sustain" ref="A3:B5" headerRowCount="1">
+  <autoFilter ref="A3:B5"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="hours_of_employment" displayName="hours_of_employment" ref="A3:B9" headerRowCount="1">
+  <autoFilter ref="A3:B9"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Value"/>
+    <tableColumn id="2" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="age_profile_of_dependants_uk" displayName="age_profile_of_dependants_uk" ref="A3:B7" headerRowCount="1">
   <autoFilter ref="A3:B7"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -453,8 +489,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="month" displayName="month" ref="A3:B15" headerRowCount="1">
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="month" displayName="month" ref="A3:B15" headerRowCount="1">
   <autoFilter ref="A3:B15"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -464,8 +500,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="employment_status" displayName="employment_status" ref="A3:B9" headerRowCount="1">
+<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="employment_status" displayName="employment_status" ref="A3:B9" headerRowCount="1">
   <autoFilter ref="A3:B9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -475,8 +511,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="employed_in_home_country" displayName="employed_in_home_country" ref="A3:B5" headerRowCount="1">
+<file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="employed_in_home_country" displayName="employed_in_home_country" ref="A3:B5" headerRowCount="1">
   <autoFilter ref="A3:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -486,8 +522,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="hours_of_employment_entry" displayName="hours_of_employment_entry" ref="A3:B9" headerRowCount="1">
+<file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="hours_of_employment_entry" displayName="hours_of_employment_entry" ref="A3:B9" headerRowCount="1">
   <autoFilter ref="A3:B9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Value"/>
@@ -1735,6 +1771,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>wage_employment_entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tbc</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4751,118 +4839,6 @@
       <c r="B252" t="inlineStr">
         <is>
           <t>Zimbabwe</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>primary_employment_entry_status</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PC</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Working as an employee on a permanent contract (or on leave from employment, for example maternity or paternity leave)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TC</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Working as an employee on a temporary contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ZHC</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Working as an employee on a zero hours contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CIH</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Working as an employee cash in hand</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Self employed or freelance (Freelance means that you are self-employed and work for different companies or people on particular pieces of work)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Other</t>
         </is>
       </c>
     </row>
@@ -4932,6 +4908,118 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>primary_employment_entry_status</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Working as an employee on a permanent contract (or on leave from employment, for example maternity or paternity leave)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Working as an employee on a temporary contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ZHC</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Working as an employee on a zero hours contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CIH</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Working as an employee cash in hand</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Self employed or freelance (Freelance means that you are self-employed and work for different companies or people on particular pieces of work)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5142,142 +5230,6 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>Sunderland City Council</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>employment_status_baseline</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PC</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Working as an employee on a permanent contract (or on leave from employment, for example maternity or paternity leave)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TC</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Working as an employee on a temporary contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ZHC</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Working as an employee on a zero hours contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CIH</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Working as an employee cash in hand</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Self employed or freelance (Freelance means that you are self-employed and work for different companies or people on particular pieces of work)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ULA</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Unemployed and looking/available for work immediately (in the next two weeks)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>UNLA</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Unemployed and NOT looking/available for work immediately (for example, retired, looking after family or long term sick or disabled)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Other</t>
         </is>
       </c>
     </row>
@@ -5310,7 +5262,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>language_level_on_entry</t>
+          <t>employment_status_baseline</t>
         </is>
       </c>
     </row>
@@ -5329,56 +5281,91 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Below formal levels</t>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Working as an employee on a permanent contract (or on leave from employment, for example maternity or paternity leave)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pre-entry</t>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Working as an employee on a temporary contract</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Entry level 1</t>
+          <t>ZHC</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Working as an employee on a zero hours contract</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Entry level 2</t>
+          <t>CIH</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Working as an employee cash in hand</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Entry level 3</t>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Self employed or freelance (Freelance means that you are self-employed and work for different companies or people on particular pieces of work)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Level 1</t>
+          <t>ULA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Unemployed and looking/available for work immediately (in the next two weeks)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Level 2</t>
+          <t>UNLA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Unemployed and NOT looking/available for work immediately (for example, retired, looking after family or long term sick or disabled)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Beyond Level 2</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -5391,6 +5378,107 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>language_level_on_entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Below formal levels</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pre-entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Entry level 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Entry level 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Entry level 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Level 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Level 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Beyond Level 2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5459,7 +5547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5546,7 +5634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5615,7 +5703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5744,7 +5832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5810,13 +5898,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5831,7 +5919,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>education_training_status_entry</t>
+          <t>housing_sustain_accomodation</t>
         </is>
       </c>
     </row>
@@ -5850,136 +5938,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>formal education</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>In formal education or training (for example, registered in college or university, an apprenticeship, or a government employment and training programme. This may be combined with paid employment)</t>
+          <t>Renting - private sector</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Not in formal education</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Not in formal education or training (i.e. not formally registered)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>secondary_employment_entry_status</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PC</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Working as an employee on a permanent contract (or on leave from employment, for example maternity or paternity leave)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TC</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Working as an employee on a temporary contract</t>
+          <t>Renting - Local authority or housing association</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ZHC</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Working as an employee on a zero hours contract</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>CIH</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Working as an employee cash in hand</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Self employed or freelance (Freelance means that you are self-employed and work for different companies or people on particular pieces of work)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Other</t>
+          <t>Other safe and secure accommodation</t>
         </is>
       </c>
     </row>
@@ -6063,6 +6036,75 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>education_training_status_entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>formal education</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>In formal education or training (for example, registered in college or university, an apprenticeship, or a government employment and training programme. This may be combined with paid employment)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Not in formal education</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Not in formal education or training (i.e. not formally registered)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6078,7 +6120,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>hours_of_employment</t>
+          <t>secondary_employment_entry_status</t>
         </is>
       </c>
     </row>
@@ -6097,42 +6139,67 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0 to 7 hours</t>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Working as an employee on a permanent contract (or on leave from employment, for example maternity or paternity leave)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8 to 15 hours</t>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Working as an employee on a temporary contract</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>16 to 30 hours</t>
+          <t>ZHC</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Working as an employee on a zero hours contract</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>31 to 48 hours</t>
+          <t>CIH</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Working as an employee cash in hand</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>49 or more hours</t>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Self employed or freelance (Freelance means that you are self-employed and work for different companies or people on particular pieces of work)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Don't know</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
@@ -6144,13 +6211,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6165,7 +6232,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>age_profile_of_dependants_uk</t>
+          <t>wage_employment_sustain</t>
         </is>
       </c>
     </row>
@@ -6184,157 +6251,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>tbc</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>11-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Caring responsibilities for an adult</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Jan</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Feb</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Mar</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Apr</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Jul</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Aug</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Sept</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Oct</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Nov</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Dec</t>
+          <t>tbc</t>
         </is>
       </c>
     </row>
@@ -6367,7 +6291,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>employment_status</t>
+          <t>hours_of_employment</t>
         </is>
       </c>
     </row>
@@ -6386,67 +6310,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PC</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Working as an employee on a permanent contract (or on leave from employment, for example maternity or paternity leave)</t>
+          <t>0 to 7 hours</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TC</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Working as an employee on a temporary contract</t>
+          <t>8 to 15 hours</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ZHC</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Working as an employee on a zero hours contract</t>
+          <t>16 to 30 hours</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CIH</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Working as an employee cash in hand</t>
+          <t>31 to 48 hours</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SE</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Self employed or freelance (Freelance means that you are self-employed and work for different companies or people on particular pieces of work)</t>
+          <t>49 or more hours</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Don't know</t>
         </is>
       </c>
     </row>
@@ -6459,6 +6358,320 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>age_profile_of_dependants_uk</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>5-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>11-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Caring responsibilities for an adult</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>month</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sept</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Oct</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Dec</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>employment_status</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Working as an employee on a permanent contract (or on leave from employment, for example maternity or paternity leave)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Working as an employee on a temporary contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ZHC</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Working as an employee on a zero hours contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CIH</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Working as an employee cash in hand</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Self employed or freelance (Freelance means that you are self-employed and work for different companies or people on particular pieces of work)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6517,7 +6730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
